--- a/biology/Zoologie/Cycloramphus_fuliginosus/Cycloramphus_fuliginosus.xlsx
+++ b/biology/Zoologie/Cycloramphus_fuliginosus/Cycloramphus_fuliginosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cycloramphus fuliginosus est une espèce d'amphibiens de la famille des Cycloramphidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cycloramphus fuliginosus est une espèce d'amphibiens de la famille des Cycloramphidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la forêt atlantique au Brésil[1]. Elle se rencontre dans la région Sud de l'État de Bahia, dans l'Espírito Santo et dans l'État de Rio de Janeiro jusqu'à 1 000 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la forêt atlantique au Brésil. Elle se rencontre dans la région Sud de l'État de Bahia, dans l'Espírito Santo et dans l'État de Rio de Janeiro jusqu'à 1 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 56,3 mm et les femelles jusqu'à 64,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 56,3 mm et les femelles jusqu'à 64,3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tschudi, 1838 : Classification der Batrachier, mit Berucksichtigung der fossilen Thiere dieser Abtheilung der Reptilien, p. 1-99 (texte intégral).</t>
         </is>
